--- a/AQ32_v2/AQ32_v2.xlsx
+++ b/AQ32_v2/AQ32_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
+    <workbookView xWindow="-15" yWindow="5040" windowWidth="21630" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1368,10 +1368,10 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2176,7 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>172</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -3001,7 +3001,7 @@
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="5" t="s">
         <v>272</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3040,7 +3040,7 @@
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="5" t="s">
         <v>267</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -3079,7 +3079,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="5" t="s">
         <v>261</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -3198,9 +3198,14 @@
     <hyperlink ref="H35" r:id="rId31"/>
     <hyperlink ref="H37" r:id="rId32"/>
     <hyperlink ref="H27" r:id="rId33"/>
+    <hyperlink ref="H19" r:id="rId34"/>
+    <hyperlink ref="H3" r:id="rId35"/>
+    <hyperlink ref="H40" r:id="rId36"/>
+    <hyperlink ref="H38" r:id="rId37"/>
+    <hyperlink ref="H39" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId39"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>